--- a/outputs/Idiosyncratic_vol.xlsx
+++ b/outputs/Idiosyncratic_vol.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M6+" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="M6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M6+" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,18 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -45,27 +38,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -78,17 +56,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -460,10 +435,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -474,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02188850915630871</v>
+        <v>0.03227309910943253</v>
       </c>
     </row>
     <row r="3">
@@ -484,67 +459,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08845964561032638</v>
+        <v>0.1001731954502182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XLY</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08911048045556526</v>
+        <v>0.101658349008817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XLV</t>
+          <t>EWC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09359844057154827</v>
+        <v>0.1130945534688533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IGF</t>
+          <t>REET</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09989897484400419</v>
+        <v>0.1210133094451293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LQD</t>
+          <t>XLB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1010924311183741</v>
+        <v>0.1211107904451804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IXN</t>
+          <t>EWJ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1025343812366264</v>
+        <v>0.1228267450172261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>IWM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1039445455119019</v>
+        <v>0.1232931375555358</v>
       </c>
     </row>
     <row r="10">
@@ -554,237 +529,237 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.106154099666565</v>
+        <v>0.1261418824177931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IWM</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1083212631248735</v>
+        <v>0.1267675547770471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XLP</t>
+          <t>IGF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1095445742673358</v>
+        <v>0.1305868175732149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>EWA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1095469930623248</v>
+        <v>0.1319373900387395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SEGA.L</t>
+          <t>XLV</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1097669474565248</v>
+        <v>0.1325899017788756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>XLB</t>
+          <t>IXN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1115528990200687</v>
+        <v>0.1345157953585981</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EWC</t>
+          <t>EWU</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1133313384424377</v>
+        <v>0.1365843332345287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EWJ</t>
+          <t>XLK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1180711403468486</v>
+        <v>0.1383528595084004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EWU</t>
+          <t>XLC</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1216239332183045</v>
+        <v>0.1385355454029926</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>XLC</t>
+          <t>IAU</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1237447244392973</v>
+        <v>0.1420958597016769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SPMV.L</t>
+          <t>IEMG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1242685760435744</v>
+        <v>0.1431601088901595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MVEU.L</t>
+          <t>XLP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.124691779955958</v>
+        <v>0.1437883647552127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>REET</t>
+          <t>SPMV.L</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1275456662179273</v>
+        <v>0.1452975674949761</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IEMG</t>
+          <t>MVEU.L</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1310349597632179</v>
+        <v>0.1465427859232219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IEUS</t>
+          <t>INDA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1359572372178073</v>
+        <v>0.1466965466141487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>EWQ</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1379967723443196</v>
+        <v>0.1553197695755368</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JPEA.L</t>
+          <t>IEVL.L</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1420449938766714</v>
+        <v>0.1570547110549254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EWQ</t>
+          <t>XLY</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1429335428146759</v>
+        <v>0.1579644828752194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>XLU</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1429786696112174</v>
+        <v>0.1579908439725476</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EWG</t>
+          <t>IEFM.L</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1443125968732339</v>
+        <v>0.161943010115091</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IEFM.L</t>
+          <t>IEUS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1453708629090459</v>
+        <v>0.1647852491168371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EWH</t>
+          <t>LQD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1490019096188002</v>
+        <v>0.1650393574612342</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IAU</t>
+          <t>JPEA.L</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1491340916402678</v>
+        <v>0.1657384505706144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>XLU</t>
+          <t>EWG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.150168620408635</v>
+        <v>0.1697875459852402</v>
       </c>
     </row>
     <row r="34">
@@ -794,97 +769,97 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1514488227986942</v>
+        <v>0.1703789676000597</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EWT</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1531771788297989</v>
+        <v>0.1704613453751612</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IEVL.L</t>
+          <t>EWH</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1563545667029977</v>
+        <v>0.1718183201639674</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EWA</t>
+          <t>IUVL.L</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1594305833722257</v>
+        <v>0.1737276153729226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IUVL.L</t>
+          <t>TLT</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1600992051843307</v>
+        <v>0.1754937130809858</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IUMO.L</t>
+          <t>GPC</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1666781714410868</v>
+        <v>0.1767668135106663</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1742882234593014</v>
+        <v>0.1785601772680011</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FTV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1748358489552578</v>
+        <v>0.1816913793561639</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1779552461225966</v>
+        <v>0.1822941551327451</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>EWY</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.178466247928925</v>
+        <v>0.1826533190695519</v>
       </c>
     </row>
     <row r="44">
@@ -894,567 +869,567 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1802445980847026</v>
+        <v>0.183306021714922</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EWY</t>
+          <t>SEGA.L</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1803825531719809</v>
+        <v>0.1853356397971272</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>IUMO.L</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.183283739921844</v>
+        <v>0.186742769131347</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1834105150781562</v>
+        <v>0.1868703134115533</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INDA</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1897133120995212</v>
+        <v>0.1888147795304998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BF.B</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1905520400528345</v>
+        <v>0.1904132648124598</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1922934620458843</v>
+        <v>0.1916263340906088</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.193106918653806</v>
+        <v>0.1918273439147213</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1958138629165787</v>
+        <v>0.1923170818915216</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GSG</t>
+          <t>AVB</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1988779190168755</v>
+        <v>0.1973366382058876</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GPC</t>
+          <t>BDX</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2000299694949824</v>
+        <v>0.1975217357273284</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>BF.B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2006183452709667</v>
+        <v>0.1981953252089973</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2050772975162005</v>
+        <v>0.1997640851543649</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>EWT</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2116859633889545</v>
+        <v>0.2031595356862435</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>DRE</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2123207008868075</v>
+        <v>0.2031609637748215</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ICLN</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2123864374783693</v>
+        <v>0.2057185634229347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>PRU</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2138396675391422</v>
+        <v>0.2133384010468575</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HYG</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2139964399130389</v>
+        <v>0.2180990290222474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>ALLE</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2140894059298578</v>
+        <v>0.2206252502397963</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>AIZ</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2156078305539003</v>
+        <v>0.2213576322855273</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.219453736459041</v>
+        <v>0.2260425601932226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>AVY</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.220995444253215</v>
+        <v>0.2293038296762787</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2218683611106081</v>
+        <v>0.2372251919725989</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MCHI</t>
+          <t>CARR</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2222194711971416</v>
+        <v>0.2397226589650283</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AIZ</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2242817035372454</v>
+        <v>0.241461443445963</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2247355644760527</v>
+        <v>0.2487748734929804</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2270536799503463</v>
+        <v>0.2496004298827977</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.228758369299136</v>
+        <v>0.2526068657721453</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2349274610653102</v>
+        <v>0.2545591983452746</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2405014546054298</v>
+        <v>0.26000733577773</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>IEAA.L</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2412122028619669</v>
+        <v>0.267334514884995</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>GSG</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2464059695870043</v>
+        <v>0.267744102430192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>HYG</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2516268634724412</v>
+        <v>0.2755799484223101</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>ICLN</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2575007437567342</v>
+        <v>0.2783826218167733</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DPZ</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2612664200606641</v>
+        <v>0.2833086665541704</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>WRK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.261354195778548</v>
+        <v>0.2960362831011322</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2626368963645911</v>
+        <v>0.2961332766653915</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2640956158536084</v>
+        <v>0.2983770695945994</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>HIGH.L</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2648708456418903</v>
+        <v>0.2998023938459263</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HIGH.L</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2656383007155239</v>
+        <v>0.3015556433000393</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.272444315045911</v>
+        <v>0.3016371130713907</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2737265762406162</v>
+        <v>0.3108898677746321</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IEAA.L</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2739392375503404</v>
+        <v>0.3131907363990221</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2749331563341106</v>
+        <v>0.3137122849769838</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2910784418568534</v>
+        <v>0.3193338448478979</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>EWZ</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2948702480817155</v>
+        <v>0.3300307740819131</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WRK</t>
+          <t>OGN</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.320208654599992</v>
+        <v>0.3389001839684804</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EWZ</t>
+          <t>MCHI</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3218847445601626</v>
+        <v>0.3390183467215612</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.327204202322449</v>
+        <v>0.3426411681682694</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.338301743616351</v>
+        <v>0.3471826871322965</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3426418201881507</v>
+        <v>0.3701930360309372</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.345560523621032</v>
+        <v>0.4059932684284074</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CARR</t>
+          <t>DXC</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3772908058927735</v>
+        <v>0.4343222974386059</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3806123214650171</v>
+        <v>0.4488936714818039</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4021088565926106</v>
+        <v>0.4771864871624454</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DXC</t>
+          <t>CZR</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4683745958702102</v>
+        <v>0.5634914461136744</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CZR</t>
+          <t>SHY</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.56437620918777</v>
+        <v>0.5693064883529646</v>
       </c>
     </row>
     <row r="101">
@@ -1464,7 +1439,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.7046628786915466</v>
+        <v>0.6312231887913202</v>
       </c>
     </row>
   </sheetData>
@@ -1487,10 +1462,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1501,7 +1476,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03227309910943253</v>
+        <v>0.02188850915630867</v>
       </c>
     </row>
     <row r="3">
@@ -1511,67 +1486,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1001731954502182</v>
+        <v>0.08845964561032638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>XLY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.101658349008817</v>
+        <v>0.08911048045556526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EWC</t>
+          <t>XLV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1130945534688533</v>
+        <v>0.09359844057154827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REET</t>
+          <t>IGF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1210133094451294</v>
+        <v>0.0998989748440042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XLB</t>
+          <t>LQD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1211107904451804</v>
+        <v>0.1010924311183741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EWJ</t>
+          <t>IXN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1228267450172261</v>
+        <v>0.1025343812366264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IWM</t>
+          <t>XLK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1232931375555358</v>
+        <v>0.1039445455119019</v>
       </c>
     </row>
     <row r="10">
@@ -1581,237 +1556,237 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1261418824177931</v>
+        <v>0.106154099666565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>IWM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1267675547770471</v>
+        <v>0.1083212631248735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IGF</t>
+          <t>XLP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1305868175732149</v>
+        <v>0.1095445742673358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EWA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1319373900387395</v>
+        <v>0.1095469930623248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>XLV</t>
+          <t>SEGA.L</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1325899017788756</v>
+        <v>0.1097669474565248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IXN</t>
+          <t>XLB</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.134515795358598</v>
+        <v>0.1115528990200687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EWU</t>
+          <t>EWC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1365843332345287</v>
+        <v>0.1133313384424378</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>EWJ</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1383528595084005</v>
+        <v>0.1180711403468486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>XLC</t>
+          <t>EWU</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1385355454029926</v>
+        <v>0.1216239332183045</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IAU</t>
+          <t>XLC</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1420958597016769</v>
+        <v>0.1237447244392973</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IEMG</t>
+          <t>SPMV.L</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1431601088901595</v>
+        <v>0.1242685760435744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>XLP</t>
+          <t>MVEU.L</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1437883647552127</v>
+        <v>0.1246917799559579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SPMV.L</t>
+          <t>REET</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1452975674949761</v>
+        <v>0.1275456662179273</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MVEU.L</t>
+          <t>IEMG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1465427859232219</v>
+        <v>0.131034959763218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INDA</t>
+          <t>IEUS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1466965466141487</v>
+        <v>0.1359572372178073</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EWQ</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1553197695755368</v>
+        <v>0.1379967723443196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IEVL.L</t>
+          <t>JPEA.L</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1570547110549254</v>
+        <v>0.1420449938766714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>XLY</t>
+          <t>EWQ</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1579644828752194</v>
+        <v>0.1429335428146759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>XLU</t>
+          <t>TLT</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1579908439725476</v>
+        <v>0.1429786696112174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IEFM.L</t>
+          <t>EWG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.161943010115091</v>
+        <v>0.1443125968732339</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IEUS</t>
+          <t>IEFM.L</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1647852491168371</v>
+        <v>0.1453708629090459</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LQD</t>
+          <t>EWH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1650393574612342</v>
+        <v>0.1490019096188002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JPEA.L</t>
+          <t>IAU</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1657384505706143</v>
+        <v>0.1491340916402678</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EWG</t>
+          <t>XLU</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1697875459852402</v>
+        <v>0.150168620408635</v>
       </c>
     </row>
     <row r="34">
@@ -1821,97 +1796,97 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1703789676000597</v>
+        <v>0.1514488227986942</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>EWT</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1704613453751612</v>
+        <v>0.1531771788297989</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EWH</t>
+          <t>IEVL.L</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1718183201639674</v>
+        <v>0.1563545667029977</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IUVL.L</t>
+          <t>EWA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1737276153729226</v>
+        <v>0.1594305833722257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>IUVL.L</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1754937130809858</v>
+        <v>0.1600992051843307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GPC</t>
+          <t>IUMO.L</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1767668135106663</v>
+        <v>0.1666781714410868</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1785601772680011</v>
+        <v>0.1742882234593014</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1816913793561639</v>
+        <v>0.1748358489552578</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1822941551327451</v>
+        <v>0.1779552461225966</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EWY</t>
+          <t>BDX</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1826533190695519</v>
+        <v>0.178466247928925</v>
       </c>
     </row>
     <row r="44">
@@ -1921,567 +1896,567 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.183306021714922</v>
+        <v>0.1802445980847026</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SEGA.L</t>
+          <t>EWY</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1853356397971272</v>
+        <v>0.1803825531719809</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IUMO.L</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.186742769131347</v>
+        <v>0.183283739921844</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1868703134115533</v>
+        <v>0.1834105150781562</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>INDA</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1888147795304998</v>
+        <v>0.1897133120995212</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>BF.B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1904132648124598</v>
+        <v>0.1905520400528344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1916263340906088</v>
+        <v>0.1922934620458843</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1918273439147213</v>
+        <v>0.193106918653806</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1923170818915216</v>
+        <v>0.1958138629165787</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>GSG</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1973366382058876</v>
+        <v>0.1988779190168755</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>GPC</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1975217357273284</v>
+        <v>0.2000299694949824</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BF.B</t>
+          <t>AVB</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1981953252089973</v>
+        <v>0.2006183452709667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1997640851543649</v>
+        <v>0.2050772975162004</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EWT</t>
+          <t>ALLE</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2031595356862435</v>
+        <v>0.2116859633889545</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DRE</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2031609637748215</v>
+        <v>0.2123207008868075</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>ICLN</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2057185634229347</v>
+        <v>0.2123864374783693</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2133384010468576</v>
+        <v>0.2138396675391422</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>HYG</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2180990290222474</v>
+        <v>0.213996439913039</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2206252502397963</v>
+        <v>0.2140894059298578</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AIZ</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2213576322855273</v>
+        <v>0.2156078305539003</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>AVY</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2260425601932226</v>
+        <v>0.219453736459041</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2293038296762787</v>
+        <v>0.220995444253215</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>FTV</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2372251919725989</v>
+        <v>0.2218683611106081</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CARR</t>
+          <t>MCHI</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2397226589650283</v>
+        <v>0.2222194711971416</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AIZ</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.241461443445963</v>
+        <v>0.2242817035372454</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2487748734929804</v>
+        <v>0.2247355644760527</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2496004298827977</v>
+        <v>0.2270536799503463</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>SHY</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2526068657721453</v>
+        <v>0.2287583692991361</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2545591983452746</v>
+        <v>0.2349274610653102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.26000733577773</v>
+        <v>0.2405014546054298</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IEAA.L</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.267334514884995</v>
+        <v>0.2412122028619669</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GSG</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.267744102430192</v>
+        <v>0.2464059695870043</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HYG</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2755799484223101</v>
+        <v>0.2516268634724412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ICLN</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2783826218167733</v>
+        <v>0.2575007437567342</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2833086665541704</v>
+        <v>0.2612664200606641</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WRK</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2960362831011322</v>
+        <v>0.261354195778548</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>PRU</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2961332766653915</v>
+        <v>0.262636896364591</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2983770695945994</v>
+        <v>0.2640956158536084</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HIGH.L</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2998023938459262</v>
+        <v>0.2648708456418903</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>HIGH.L</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3015556433000393</v>
+        <v>0.2656383007155238</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3016371130713907</v>
+        <v>0.272444315045911</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3108898677746321</v>
+        <v>0.2737265762406162</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IEAA.L</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3131907363990221</v>
+        <v>0.2739392375503404</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>DPZ</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3137122849769838</v>
+        <v>0.2749331563341106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3193338448478979</v>
+        <v>0.2910784418568534</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EWZ</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3300307740819131</v>
+        <v>0.2948702480817156</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OGN</t>
+          <t>WRK</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.3389001839684804</v>
+        <v>0.320208654599992</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MCHI</t>
+          <t>EWZ</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3390183467215612</v>
+        <v>0.3218847445601626</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3426411681682694</v>
+        <v>0.327204202322449</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.3471826871322965</v>
+        <v>0.338301743616351</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3701930360309372</v>
+        <v>0.3426418201881507</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4059932684284074</v>
+        <v>0.345560523621032</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DXC</t>
+          <t>CARR</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4343222974386059</v>
+        <v>0.3772908058927735</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.4488936714818039</v>
+        <v>0.3806123214650171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4771864871624454</v>
+        <v>0.4021088565926106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CZR</t>
+          <t>DXC</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.5634914461136744</v>
+        <v>0.4683745958702102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>CZR</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5693064883529646</v>
+        <v>0.56437620918777</v>
       </c>
     </row>
     <row r="101">
@@ -2491,7 +2466,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.6312231887913202</v>
+        <v>0.7046628786915466</v>
       </c>
     </row>
   </sheetData>
